--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,154 +55,91 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>horrible</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>creepy</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>worse</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harmful</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>ass</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>fake</t>
+    <t>shit</t>
   </si>
   <si>
     <t>sad</t>
@@ -229,142 +166,103 @@
     <t>social</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>inspired</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>mack</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>society</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>irony</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>netflix</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -743,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS58"/>
+  <dimension ref="A1:BS41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,28 +649,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="S1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="AB1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="AK1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="AT1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="BC1" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="BL1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -974,13 +872,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0374998222673654</v>
+        <v>0.03841124008185122</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -992,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>0.01475081841134554</v>
+        <v>0.1368444651639601</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1016,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04446680461567215</v>
+        <v>0.04555839449051602</v>
       </c>
       <c r="U3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1040,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AC3">
-        <v>0.1060584128604251</v>
+        <v>0.07999575374768038</v>
       </c>
       <c r="AD3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AE3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1064,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.05464931727858203</v>
+        <v>0.05600423554933382</v>
       </c>
       <c r="AM3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1088,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AU3">
-        <v>0.08213911968295673</v>
+        <v>0.06207250144163162</v>
       </c>
       <c r="AV3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AW3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1112,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.07094133753923784</v>
+        <v>0.07271758124344228</v>
       </c>
       <c r="BE3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BF3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1136,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="BM3">
-        <v>0.06871734309173941</v>
+        <v>0.05329166363962777</v>
       </c>
       <c r="BN3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BO3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1160,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1168,38 +1066,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01193234704248092</v>
+        <v>0.01121548383160647</v>
       </c>
       <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>0.1096216912164672</v>
+      </c>
+      <c r="L4">
         <v>27</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>27</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4">
-        <v>0.01254953427050956</v>
-      </c>
-      <c r="L4">
-        <v>28</v>
-      </c>
-      <c r="M4">
-        <v>28</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -1210,44 +1108,44 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01415130944813916</v>
+        <v>0.01328175164557782</v>
       </c>
       <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>25</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4">
+        <v>0.06648799811759321</v>
+      </c>
+      <c r="AD4">
         <v>27</v>
       </c>
-      <c r="V4">
+      <c r="AE4">
         <v>27</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC4">
-        <v>0.09034890570265956</v>
-      </c>
-      <c r="AD4">
-        <v>28</v>
-      </c>
-      <c r="AE4">
-        <v>28</v>
-      </c>
       <c r="AF4">
         <v>1</v>
       </c>
@@ -1258,44 +1156,44 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.01739440834871659</v>
+        <v>0.01630168152753594</v>
       </c>
       <c r="AM4">
+        <v>25</v>
+      </c>
+      <c r="AN4">
+        <v>25</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU4">
+        <v>0.05288881451179907</v>
+      </c>
+      <c r="AV4">
         <v>27</v>
       </c>
-      <c r="AN4">
+      <c r="AW4">
         <v>27</v>
       </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU4">
-        <v>0.07038945560987894</v>
-      </c>
-      <c r="AV4">
-        <v>28</v>
-      </c>
-      <c r="AW4">
-        <v>28</v>
-      </c>
       <c r="AX4">
         <v>1</v>
       </c>
@@ -1306,44 +1204,44 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02258336658964048</v>
+        <v>0.02113356933866894</v>
       </c>
       <c r="BE4">
+        <v>25</v>
+      </c>
+      <c r="BF4">
+        <v>25</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>3</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM4">
+        <v>0.04622639502212594</v>
+      </c>
+      <c r="BN4">
         <v>27</v>
       </c>
-      <c r="BF4">
+      <c r="BO4">
         <v>27</v>
       </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
-      <c r="BI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM4">
-        <v>0.05918965643348847</v>
-      </c>
-      <c r="BN4">
-        <v>28</v>
-      </c>
-      <c r="BO4">
-        <v>28</v>
-      </c>
       <c r="BP4">
         <v>1</v>
       </c>
@@ -1354,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1362,13 +1260,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.008482995948359445</v>
+        <v>0.009460162723517568</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1380,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.01171229426593045</v>
+        <v>0.1022067864520738</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1404,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.009917560037817937</v>
+        <v>0.01109656046747137</v>
       </c>
       <c r="U5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1428,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="AC5">
-        <v>0.0852504625128549</v>
+        <v>0.0633248029650175</v>
       </c>
       <c r="AD5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1452,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.01201423063010343</v>
+        <v>0.01348821870863461</v>
       </c>
       <c r="AM5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1476,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="AU5">
-        <v>0.06718080902842723</v>
+        <v>0.0510660976604226</v>
       </c>
       <c r="AV5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1500,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.0153689035777602</v>
+        <v>0.01731487189449581</v>
       </c>
       <c r="BE5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BF5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1524,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="BM5">
-        <v>0.0570414269677083</v>
+        <v>0.04506039617811489</v>
       </c>
       <c r="BN5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BO5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1548,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1556,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.005963597708635977</v>
+        <v>0.006039502202492065</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -1577,16 +1475,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.009516161750303434</v>
+        <v>0.1020933393742063</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1598,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.007063419614198293</v>
+        <v>0.007153591163231895</v>
       </c>
       <c r="U6">
         <v>13</v>
@@ -1625,16 +1523,16 @@
         <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AC6">
-        <v>0.06968206960191094</v>
+        <v>0.06310725184036819</v>
       </c>
       <c r="AD6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1646,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.008670851630020139</v>
+        <v>0.008781875028928568</v>
       </c>
       <c r="AM6">
         <v>13</v>
@@ -1673,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AU6">
-        <v>0.05560867103246604</v>
+        <v>0.05081572462917127</v>
       </c>
       <c r="AV6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AW6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1694,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.01124274285533509</v>
+        <v>0.01138712921404325</v>
       </c>
       <c r="BE6">
         <v>13</v>
@@ -1721,16 +1619,16 @@
         <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="BM6">
-        <v>0.04771169807106691</v>
+        <v>0.04479394326173426</v>
       </c>
       <c r="BN6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BO6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1742,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1750,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.004255664943504371</v>
+        <v>0.004309890150160964</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -1771,10 +1669,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.006511123168746608</v>
+        <v>0.06001806648235322</v>
       </c>
       <c r="L7">
         <v>14</v>
@@ -1798,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.005026073123201045</v>
+        <v>0.005090517999974994</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -1819,10 +1717,10 @@
         <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="AC7">
-        <v>0.04979136185868124</v>
+        <v>0.04322959568019973</v>
       </c>
       <c r="AD7">
         <v>14</v>
@@ -1846,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.00615205430891157</v>
+        <v>0.006231435626626272</v>
       </c>
       <c r="AM7">
         <v>9</v>
@@ -1867,10 +1765,10 @@
         <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="AU7">
-        <v>0.04180427987919442</v>
+        <v>0.0379365293903355</v>
       </c>
       <c r="AV7">
         <v>14</v>
@@ -1894,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.007953624206048409</v>
+        <v>0.008056903829268316</v>
       </c>
       <c r="BE7">
         <v>9</v>
@@ -1915,10 +1813,10 @@
         <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="BM7">
-        <v>0.03732250739749788</v>
+        <v>0.0353433863729342</v>
       </c>
       <c r="BN7">
         <v>14</v>
@@ -1944,13 +1842,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002981798854317989</v>
+        <v>0.003872988052320573</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1962,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.003609217999491689</v>
+        <v>0.04208888466371143</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1986,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003531709807099147</v>
+        <v>0.004553379056562099</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -2010,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AC8">
-        <v>0.02891285438770021</v>
+        <v>0.03388577037607505</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2034,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004335425815010069</v>
+        <v>0.005547796678145867</v>
       </c>
       <c r="AM8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2058,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AU8">
-        <v>0.02675720618610663</v>
+        <v>0.03172727525563555</v>
       </c>
       <c r="AV8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -2082,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.005621371427667546</v>
+        <v>0.007138864872679898</v>
       </c>
       <c r="BE8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -2106,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BM8">
-        <v>0.02554761239266199</v>
+        <v>0.03066980001479436</v>
       </c>
       <c r="BN8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BO8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2130,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2138,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002979223041713508</v>
+        <v>0.003019751101246033</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2156,19 +2054,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.003470023210727043</v>
+        <v>0.04073205385744422</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2180,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.00351947469722786</v>
+        <v>0.003576795581615947</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2204,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="AC9">
-        <v>0.02863062589405697</v>
+        <v>0.03028747297420074</v>
       </c>
       <c r="AD9">
         <v>7</v>
@@ -2228,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004309073270671914</v>
+        <v>0.004390937514464284</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2252,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="AU9">
-        <v>0.02640215403187344</v>
+        <v>0.02940381234175641</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2276,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.0055724309881824</v>
+        <v>0.005693564607021624</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2300,13 +2198,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="BM9">
-        <v>0.02515169686944289</v>
+        <v>0.02897089533802203</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2324,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2332,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002966343978691101</v>
+        <v>0.003017180195670253</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2350,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.003459719960309118</v>
+        <v>0.03309025493731585</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2374,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003458299147871427</v>
+        <v>0.003564583780130992</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -2398,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="AC10">
-        <v>0.02594029005233304</v>
+        <v>0.02844481404833372</v>
       </c>
       <c r="AD10">
         <v>6</v>
@@ -2428,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004177310548981135</v>
+        <v>0.004364635172804381</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -2446,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="AU10">
-        <v>0.02462030466403098</v>
+        <v>0.02819200627856658</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2476,7 +2374,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.005327728790756667</v>
+        <v>0.005644717401081804</v>
       </c>
       <c r="BE10">
         <v>6</v>
@@ -2494,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="BM10">
-        <v>0.02387962437494326</v>
+        <v>0.02806815241635974</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2526,7 +2424,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002555459616186207</v>
+        <v>0.002587990814557202</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2547,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.003035948332810603</v>
+        <v>0.02924666606167815</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2574,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003025431961817656</v>
+        <v>0.003064080241172961</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2595,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AC11">
-        <v>0.02594029005233304</v>
+        <v>0.02844481404833372</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2622,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003712314620817466</v>
+        <v>0.003759903249303686</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2643,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AU11">
-        <v>0.02462030466403098</v>
+        <v>0.02819200627856658</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2670,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004811326875217161</v>
+        <v>0.004873220062312846</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2691,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="BM11">
-        <v>0.02387962437494326</v>
+        <v>0.02806815241635974</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2720,13 +2618,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002537428927954838</v>
+        <v>0.002135663283262132</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2738,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.003035948332810603</v>
+        <v>0.02924666606167815</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2768,13 +2666,13 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002939786192718649</v>
+        <v>0.002453670488850335</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2786,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AC12">
-        <v>0.0169520399228207</v>
+        <v>0.02543173547237784</v>
       </c>
       <c r="AD12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2810,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003527846810450375</v>
+        <v>0.002918450250863862</v>
       </c>
       <c r="AM12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2834,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AU12">
-        <v>0.01812083705924576</v>
+        <v>0.02571831954593665</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2864,13 +2762,13 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004468743798821136</v>
+        <v>0.003662097870085506</v>
       </c>
       <c r="BE12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG12">
         <v>0</v>
@@ -2882,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="BM12">
-        <v>0.0187766814409823</v>
+        <v>0.02620937598975903</v>
       </c>
       <c r="BN12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2914,37 +2812,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002129120378054426</v>
+        <v>0.001724470241179541</v>
       </c>
       <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13">
+        <v>0.02153679889482925</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>4</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13">
-        <v>0.0017311478864568</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2962,37 +2860,37 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002519154116536166</v>
+        <v>0.002038649560286989</v>
       </c>
       <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC13">
+        <v>0.02471598597166981</v>
+      </c>
+      <c r="AD13">
         <v>4</v>
       </c>
-      <c r="V13">
+      <c r="AE13">
         <v>4</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC13">
-        <v>0.0169520399228207</v>
-      </c>
-      <c r="AD13">
-        <v>3</v>
-      </c>
-      <c r="AE13">
-        <v>3</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -3010,13 +2908,13 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003089203426624862</v>
+        <v>0.00249783471898249</v>
       </c>
       <c r="AM13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3031,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AU13">
-        <v>0.01812083705924576</v>
+        <v>0.02450651348274682</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3058,13 +2956,13 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004001282322766777</v>
+        <v>0.003232530972895291</v>
       </c>
       <c r="BE13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3079,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="BM13">
-        <v>0.0187766814409823</v>
+        <v>0.02530663306809674</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3108,13 +3006,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002129120378054426</v>
+        <v>0.001721899335603762</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3126,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.0017311478864568</v>
+        <v>0.01769321001919156</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3156,13 +3054,13 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002519154116536166</v>
+        <v>0.002026437758802034</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3174,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="AC14">
-        <v>0.01688148279940989</v>
+        <v>0.02287332704580279</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3198,19 +3096,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003089203426624862</v>
+        <v>0.002471532377322586</v>
       </c>
       <c r="AM14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3222,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="AU14">
-        <v>0.01803207402068746</v>
+        <v>0.02440636427024629</v>
       </c>
       <c r="AV14">
         <v>3</v>
@@ -3246,19 +3144,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004001282322766777</v>
+        <v>0.003183683766955471</v>
       </c>
       <c r="BE14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3270,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="BM14">
-        <v>0.01867770256017752</v>
+        <v>0.02520005190154449</v>
       </c>
       <c r="BN14">
         <v>3</v>
@@ -3294,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3302,7 +3200,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001702781139922645</v>
+        <v>0.001721899335603762</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3320,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.001728572073852318</v>
+        <v>0.01764783118804455</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -3344,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002012876271254675</v>
+        <v>0.002026437758802034</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -3368,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="AC15">
-        <v>0.01681092567599908</v>
+        <v>0.02278630659594307</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -3398,7 +3296,7 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.002466092232432259</v>
+        <v>0.002471532377322586</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -3416,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AU15">
-        <v>0.01794331098212916</v>
+        <v>0.02334478202580726</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX15">
         <v>1</v>
@@ -3440,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.003191237770316393</v>
+        <v>0.003183683766955471</v>
       </c>
       <c r="BE15">
         <v>3</v>
@@ -3464,19 +3362,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="BM15">
-        <v>0.01857872367937275</v>
+        <v>0.02445718072971058</v>
       </c>
       <c r="BN15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP15">
         <v>1</v>
@@ -3488,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3496,13 +3394,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001702781139922645</v>
+        <v>0.001292709954490711</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3517,16 +3415,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.001725996261247837</v>
+        <v>0.01387231055912737</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3538,19 +3436,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002012876271254675</v>
+        <v>0.001525934219844003</v>
       </c>
       <c r="U16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3565,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AC16">
-        <v>0.01489031713317535</v>
+        <v>0.02107417834486564</v>
       </c>
       <c r="AD16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -3586,19 +3484,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.002466092232432259</v>
+        <v>0.001866800453821892</v>
       </c>
       <c r="AM16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3613,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AU16">
-        <v>0.01607269857572842</v>
+        <v>0.02324463281330673</v>
       </c>
       <c r="AV16">
         <v>2</v>
@@ -3634,19 +3532,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.003191237770316393</v>
+        <v>0.002412186428186513</v>
       </c>
       <c r="BE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3661,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="BM16">
-        <v>0.01720767230406834</v>
+        <v>0.02435059956315832</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3682,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3690,13 +3588,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001702781139922645</v>
+        <v>0.001292709954490711</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3711,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.00129964882114484</v>
+        <v>0.01382693172798036</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3732,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002012876271254675</v>
+        <v>0.001525934219844003</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3759,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AC17">
-        <v>0.01405003271086433</v>
+        <v>0.02098715789500592</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3780,19 +3678,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.002466092232432259</v>
+        <v>0.001866800453821892</v>
       </c>
       <c r="AM17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3807,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="AU17">
-        <v>0.01607269857572842</v>
+        <v>0.02259366293205327</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3828,19 +3726,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.003191237770316393</v>
+        <v>0.002412186428186513</v>
       </c>
       <c r="BE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3855,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="BM17">
-        <v>0.01720767230406834</v>
+        <v>0.02365782198056867</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3876,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3884,13 +3782,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001700205327318163</v>
+        <v>0.001290139048914931</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3905,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.00129964882114484</v>
+        <v>0.01353196932552478</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3926,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002000641161383388</v>
+        <v>0.001513722418359048</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3953,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="AC18">
-        <v>0.01405003271086433</v>
+        <v>0.02042152497091772</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3974,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.002439739688094103</v>
+        <v>0.001840498112161988</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -4001,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AU18">
-        <v>0.01607269857572842</v>
+        <v>0.02244343911330247</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4022,19 +3920,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.003142297330831246</v>
+        <v>0.002363339222246693</v>
       </c>
       <c r="BE18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -4049,16 +3947,16 @@
         <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="BM18">
-        <v>0.01720767230406834</v>
+        <v>0.02355443780804829</v>
       </c>
       <c r="BN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP18">
         <v>1</v>
@@ -4078,13 +3976,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001671871388668868</v>
+        <v>0.001290139048914931</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4096,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.00129964882114484</v>
+        <v>0.01346390107880426</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4120,19 +4018,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001866054952799236</v>
+        <v>0.001513722418359048</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4144,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AC19">
-        <v>0.01405003271086433</v>
+        <v>0.02029099429612814</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4168,19 +4066,19 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.002149861700374389</v>
+        <v>0.001840498112161988</v>
       </c>
       <c r="AM19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -4192,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AU19">
-        <v>0.01607269857572842</v>
+        <v>0.02229321529455168</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4216,19 +4114,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002603952496494634</v>
+        <v>0.002363339222246693</v>
       </c>
       <c r="BE19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -4240,19 +4138,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="BM19">
-        <v>0.01720767230406834</v>
+        <v>0.02355443780804829</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <v>1</v>
@@ -4272,7 +4170,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001276441901790863</v>
+        <v>0.001290139048914931</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4290,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.00129964882114484</v>
+        <v>0.01339583283208374</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4314,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001506598425973185</v>
+        <v>0.001513722418359048</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4338,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="AC20">
-        <v>0.01405003271086433</v>
+        <v>0.02016046362133855</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4362,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001842981038239655</v>
+        <v>0.001840498112161988</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4386,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AU20">
-        <v>0.01509630515158714</v>
+        <v>0.02213297596261742</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20">
         <v>1</v>
@@ -4410,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.002381193217866008</v>
+        <v>0.002363339222246693</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4434,19 +4332,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="BM20">
-        <v>0.01611890461521582</v>
+        <v>0.02350114722477216</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>1</v>
@@ -4458,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4466,7 +4364,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001276441901790863</v>
+        <v>0.001287568143339151</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4484,19 +4382,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.001271314882495545</v>
+        <v>0.01002872168348968</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4508,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001506598425973185</v>
+        <v>0.001501510616874093</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -4532,19 +4430,19 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AC21">
-        <v>0.01327390435334542</v>
+        <v>0.01923151941899862</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -4556,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001842981038239655</v>
+        <v>0.001814195770502085</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4580,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="AU21">
-        <v>0.01393579705365277</v>
+        <v>0.02213297596261742</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4610,7 +4508,7 @@
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002381193217866008</v>
+        <v>0.002314492016306873</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4628,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="BM21">
-        <v>0.01553968428634962</v>
+        <v>0.02350114722477216</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4652,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4660,7 +4558,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001276441901790863</v>
+        <v>0.001287568143339151</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4678,19 +4576,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.00109615962539081</v>
+        <v>0.01002872168348968</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4702,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001506598425973185</v>
+        <v>0.001501510616874093</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -4726,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="AC22">
-        <v>0.01107746837549716</v>
+        <v>0.01923151941899862</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4756,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001842981038239655</v>
+        <v>0.001814195770502085</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -4774,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AU22">
-        <v>0.01393579705365277</v>
+        <v>0.02208290135636716</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4798,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002381193217866008</v>
+        <v>0.002314492016306873</v>
       </c>
       <c r="BE22">
         <v>2</v>
@@ -4822,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="BM22">
-        <v>0.01553968428634962</v>
+        <v>0.02349795023074028</v>
       </c>
       <c r="BN22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP22">
         <v>1</v>
@@ -4846,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4854,7 +4752,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001276441901790863</v>
+        <v>0.001284997237763371</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4872,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.0008655739432283999</v>
+        <v>0.01000603226791617</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4896,13 +4794,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001506598425973185</v>
+        <v>0.001489298815389138</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -4920,13 +4818,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AC23">
-        <v>0.01107746837549716</v>
+        <v>0.01918800919406876</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4944,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001842981038239655</v>
+        <v>0.001787893428842182</v>
       </c>
       <c r="AM23">
         <v>2</v>
@@ -4968,13 +4866,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="AU23">
-        <v>0.01393579705365277</v>
+        <v>0.02208290135636716</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4992,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002381193217866008</v>
+        <v>0.002265644810367052</v>
       </c>
       <c r="BE23">
         <v>2</v>
@@ -5016,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="BM23">
-        <v>0.01553968428634962</v>
+        <v>0.02344785664149603</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -5040,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5048,7 +4946,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001276441901790863</v>
+        <v>0.001277284521036031</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5066,13 +4964,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.0008655739432283999</v>
+        <v>0.01000603226791617</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -5090,13 +4988,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001506598425973185</v>
+        <v>0.001452663410934273</v>
       </c>
       <c r="U24">
         <v>2</v>
@@ -5114,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="AC24">
-        <v>0.01107746837549716</v>
+        <v>0.01918800919406876</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5138,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001842981038239655</v>
+        <v>0.001708986403862472</v>
       </c>
       <c r="AM24">
         <v>2</v>
@@ -5162,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AU24">
-        <v>0.01393579705365277</v>
+        <v>0.02203282675011689</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5186,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002381193217866008</v>
+        <v>0.002119103192547591</v>
       </c>
       <c r="BE24">
         <v>2</v>
@@ -5210,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="BM24">
-        <v>0.01553968428634962</v>
+        <v>0.02344785664149603</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5234,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5242,7 +5140,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001276441901790863</v>
+        <v>0.001259288182005571</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -5260,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.0008655739432283999</v>
+        <v>0.009983342852342663</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5284,13 +5182,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001506598425973185</v>
+        <v>0.001367180800539587</v>
       </c>
       <c r="U25">
         <v>2</v>
@@ -5308,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AC25">
-        <v>0.01107746837549716</v>
+        <v>0.0191444989691389</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5332,13 +5230,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001842981038239655</v>
+        <v>0.00152487001224315</v>
       </c>
       <c r="AM25">
         <v>2</v>
@@ -5356,13 +5254,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="AU25">
-        <v>0.01393579705365277</v>
+        <v>0.02203282675011689</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5380,13 +5278,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.002381193217866008</v>
+        <v>0.00177717275096885</v>
       </c>
       <c r="BE25">
         <v>2</v>
@@ -5404,13 +5302,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="BM25">
-        <v>0.01553968428634962</v>
+        <v>0.02344785664149603</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5428,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5436,13 +5334,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001276441901790863</v>
+        <v>0.0008609496678018808</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5457,10 +5355,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.0008655739432283999</v>
+        <v>0.009983342852342663</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5478,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001506598425973185</v>
+        <v>0.001013218879401017</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5505,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="AC26">
-        <v>0.01107746837549716</v>
+        <v>0.0191444989691389</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5526,19 +5424,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001842981038239655</v>
+        <v>0.001235766188661293</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5553,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AU26">
-        <v>0.01393579705365277</v>
+        <v>0.02203282675011689</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5574,19 +5472,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.002381193217866008</v>
+        <v>0.001591841883477735</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -5601,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="BM26">
-        <v>0.01553968428634962</v>
+        <v>0.02334127547494378</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5622,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5630,13 +5528,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001276441901790863</v>
+        <v>0.0008609496678018808</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5651,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.0008655739432283999</v>
+        <v>0.009983342852342663</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5672,19 +5570,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001506598425973185</v>
+        <v>0.001013218879401017</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5699,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AC27">
-        <v>0.01107746837549716</v>
+        <v>0.0191444989691389</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5720,19 +5618,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001842981038239655</v>
+        <v>0.001235766188661293</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5747,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AU27">
-        <v>0.01393579705365277</v>
+        <v>0.02193267753761636</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5768,19 +5666,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.002381193217866008</v>
+        <v>0.001591841883477735</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5795,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="BM27">
-        <v>0.01553968428634962</v>
+        <v>0.02334127547494378</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5816,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5824,13 +5722,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.001276441901790863</v>
+        <v>0.0008609496678018808</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5845,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.0008655739432283999</v>
+        <v>0.00993796402119565</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5866,19 +5764,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001506598425973185</v>
+        <v>0.001013218879401017</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5893,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AC28">
-        <v>0.01107746837549716</v>
+        <v>0.01905747851927917</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5914,19 +5812,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.001842981038239655</v>
+        <v>0.001235766188661293</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5941,10 +5839,10 @@
         <v>0</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AU28">
-        <v>0.01393579705365277</v>
+        <v>0.02193267753761636</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5962,19 +5860,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.002381193217866008</v>
+        <v>0.001591841883477735</v>
       </c>
       <c r="BE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -5989,16 +5887,16 @@
         <v>0</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="BM28">
-        <v>0.01553968428634962</v>
+        <v>0.0233380784809119</v>
       </c>
       <c r="BN28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP28">
         <v>1</v>
@@ -6010,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6018,13 +5916,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001273866089186382</v>
+        <v>0.0008583787622261007</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6039,10 +5937,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.0008655739432283999</v>
+        <v>0.00993796402119565</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6060,19 +5958,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001494363316101898</v>
+        <v>0.001001007077916062</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -6087,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AC29">
-        <v>0.01107746837549716</v>
+        <v>0.01905747851927917</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6108,19 +6006,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.001816628493901499</v>
+        <v>0.00120946384700139</v>
       </c>
       <c r="AM29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -6135,10 +6033,10 @@
         <v>1</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AU29">
-        <v>0.01393579705365277</v>
+        <v>0.02188260293136609</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6156,19 +6054,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.002332252778380861</v>
+        <v>0.001542994677537915</v>
       </c>
       <c r="BE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>0</v>
@@ -6183,10 +6081,10 @@
         <v>1</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="BM29">
-        <v>0.01553968428634962</v>
+        <v>0.02328798489166765</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6204,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6212,13 +6110,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0012712902765819</v>
+        <v>0.0008583787622261007</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6230,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.0008655739432283999</v>
+        <v>0.009915274605622146</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6254,19 +6152,19 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001482128206230611</v>
+        <v>0.001001007077916062</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -6278,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AC30">
-        <v>0.01107746837549716</v>
+        <v>0.01901396829434931</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6302,19 +6200,19 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001790275949563343</v>
+        <v>0.00120946384700139</v>
       </c>
       <c r="AM30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -6326,13 +6224,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AU30">
-        <v>0.01393579705365277</v>
+        <v>0.0217323791126153</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6350,19 +6248,19 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.002283312338895714</v>
+        <v>0.001542994677537915</v>
       </c>
       <c r="BE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG30">
         <v>0</v>
@@ -6374,13 +6272,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="BM30">
-        <v>0.01553968428634962</v>
+        <v>0.02312811314183927</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6398,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6406,13 +6304,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0012712902765819</v>
+        <v>0.0008583787622261007</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6424,13 +6322,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.0008655739432283999</v>
+        <v>0.009847206358901628</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6448,19 +6346,19 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001482128206230611</v>
+        <v>0.001001007077916062</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -6472,13 +6370,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AC31">
-        <v>0.01107746837549716</v>
+        <v>0.01888343761955973</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6496,19 +6394,19 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001790275949563343</v>
+        <v>0.00120946384700139</v>
       </c>
       <c r="AM31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -6520,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AU31">
-        <v>0.01393579705365277</v>
+        <v>0.02163222990011476</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6544,19 +6442,19 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.002283312338895714</v>
+        <v>0.001542994677537915</v>
       </c>
       <c r="BE31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG31">
         <v>0</v>
@@ -6568,13 +6466,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="BM31">
-        <v>0.01553968428634962</v>
+        <v>0.02302153197528701</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6592,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6600,7 +6498,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008501026636590816</v>
+        <v>0.0008558078566503208</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6618,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.0008655739432283999</v>
+        <v>0.009801827527754613</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6642,13 +6540,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001000320580691694</v>
+        <v>0.0009887952764311069</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6666,13 +6564,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AC32">
-        <v>0.01107746837549716</v>
+        <v>0.01879641716970001</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6690,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001219869844047052</v>
+        <v>0.001183161505341487</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6714,13 +6612,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AU32">
-        <v>0.01393579705365277</v>
+        <v>0.02163222990011476</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6738,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001571148665415623</v>
+        <v>0.001494147471598095</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6762,13 +6660,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="BM32">
-        <v>0.01553968428634962</v>
+        <v>0.02302153197528701</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6786,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6794,7 +6692,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008501026636590816</v>
+        <v>0.0008558078566503208</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6812,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.0008655739432283999</v>
+        <v>0.009801827527754613</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6836,13 +6734,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001000320580691694</v>
+        <v>0.0009887952764311069</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6860,13 +6758,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AC33">
-        <v>0.01107746837549716</v>
+        <v>0.01879641716970001</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6884,13 +6782,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001219869844047052</v>
+        <v>0.001183161505341487</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6908,13 +6806,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AU33">
-        <v>0.01384703401509447</v>
+        <v>0.02153208068761423</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6932,13 +6830,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001571148665415623</v>
+        <v>0.001494147471598095</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6956,13 +6854,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="BM33">
-        <v>0.01544070540554484</v>
+        <v>0.02291495080873476</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6980,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6988,7 +6886,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0008501026636590816</v>
+        <v>0.0008506660454987607</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7006,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.0008655739432283999</v>
+        <v>0.009756448696607602</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7030,13 +6928,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001000320580691694</v>
+        <v>0.0009643716734611969</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7054,13 +6952,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AC34">
-        <v>0.01100691125208635</v>
+        <v>0.01870939671984029</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7078,13 +6976,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.001219869844047052</v>
+        <v>0.00113055682202168</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7102,13 +7000,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AU34">
-        <v>0.01384703401509447</v>
+        <v>0.02138185686886344</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7126,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.001571148665415623</v>
+        <v>0.001396453059718454</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7150,13 +7048,13 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="BM34">
-        <v>0.01544070540554484</v>
+        <v>0.02275507905890637</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7174,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7182,7 +7080,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0008501026636590816</v>
+        <v>0.0008480951399229807</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7200,13 +7098,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.0008629981306239185</v>
+        <v>0.009688380449887084</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7224,13 +7122,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.001000320580691694</v>
+        <v>0.0009521598719762418</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7248,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AC35">
-        <v>0.01100691125208635</v>
+        <v>0.0185788660450507</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7272,13 +7170,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.001219869844047052</v>
+        <v>0.001104254480361777</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7296,13 +7194,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AU35">
-        <v>0.01384703401509447</v>
+        <v>0.02138185686886344</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7320,13 +7218,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.001571148665415623</v>
+        <v>0.001347605853778634</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7344,13 +7242,13 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM35">
-        <v>0.01544070540554484</v>
+        <v>0.02275507905890637</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7368,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7376,7 +7274,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0008501026636590816</v>
+        <v>0.0008455242343472007</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7394,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K36">
-        <v>0.0008629981306239185</v>
+        <v>0.009688380449887084</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7418,13 +7316,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.001000320580691694</v>
+        <v>0.0009399480704912868</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7442,13 +7340,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AC36">
-        <v>0.01100691125208635</v>
+        <v>0.0185788660450507</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7466,13 +7364,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.001219869844047052</v>
+        <v>0.001077952138701874</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7490,13 +7388,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AU36">
-        <v>0.01384703401509447</v>
+        <v>0.02138185686886344</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7514,13 +7412,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.001571148665415623</v>
+        <v>0.001298758647838814</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7538,13 +7436,13 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="BM36">
-        <v>0.01544070540554484</v>
+        <v>0.02275507905890637</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7562,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:71">
@@ -7570,7 +7468,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0008501026636590816</v>
+        <v>0.0008429533287714207</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7588,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>0.0008629981306239185</v>
+        <v>0.009688380449887084</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7612,13 +7510,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T37">
-        <v>0.001000320580691694</v>
+        <v>0.0009277362690063317</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7636,13 +7534,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AC37">
-        <v>0.01100691125208635</v>
+        <v>0.0185788660450507</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7660,13 +7558,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AL37">
-        <v>0.001219869844047052</v>
+        <v>0.001051649797041971</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7684,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AU37">
-        <v>0.01375827097653618</v>
+        <v>0.02083103620011052</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7708,13 +7606,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="BC37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BD37">
-        <v>0.001571148665415623</v>
+        <v>0.001249911441898994</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7732,13 +7630,13 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="BM37">
-        <v>0.01534172652474007</v>
+        <v>0.02216888264286897</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7756,39 +7654,15 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.0008501026636590816</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.0008629981306239185</v>
+        <v>0.009438796878578518</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7806,37 +7680,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.001000320580691694</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AC38">
-        <v>0.01093635412867554</v>
+        <v>0.01810025357082223</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7854,43 +7704,19 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>2</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.001219869844047052</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="AU38">
-        <v>0.01375827097653618</v>
+        <v>0.0201800722381911</v>
       </c>
       <c r="AV38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AW38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AX38">
         <v>1</v>
@@ -7902,37 +7728,13 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>2</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.001571148665415623</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="BM38">
-        <v>0.01534172652474007</v>
+        <v>0.01827867006371168</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -7950,39 +7752,15 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0008501026636590816</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>0.000860422318019437</v>
+        <v>0.007782469541712576</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -8000,37 +7778,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.001000320580691694</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AC39">
-        <v>0.01093635412867554</v>
+        <v>0.01492400715094237</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8048,37 +7802,13 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>2</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.001219869844047052</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AU39">
-        <v>0.01375827097653618</v>
+        <v>0.01717558994384112</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8096,43 +7826,19 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>2</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.001571148665415623</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="BM39">
-        <v>0.01534172652474007</v>
+        <v>0.01760721312407942</v>
       </c>
       <c r="BN39">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BO39">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BP39">
         <v>1</v>
@@ -8144,39 +7850,15 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>2</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0008501026636590816</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="K40">
-        <v>0.000860422318019437</v>
+        <v>0.004537883114701211</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8194,37 +7876,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.001000320580691694</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AC40">
-        <v>0.01093635412867554</v>
+        <v>0.008702044985972225</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8242,37 +7900,13 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>2</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.001219869844047052</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AU40">
-        <v>0.01375827097653618</v>
+        <v>0.01001492125005314</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8290,37 +7924,13 @@
         <v>0</v>
       </c>
       <c r="BA40">
-        <v>2</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.001571148665415623</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="BM40">
-        <v>0.01534172652474007</v>
+        <v>0.01065811665522547</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8338,39 +7948,15 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>2</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0008501026636590816</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.000860422318019437</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8388,37 +7974,13 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>2</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.001000320580691694</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AC41">
-        <v>0.01093635412867554</v>
+        <v>0</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8436,37 +7998,13 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.001219869844047052</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AU41">
-        <v>0.01366950793797788</v>
+        <v>0</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8484,37 +8022,13 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>3</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.001571148665415623</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="BM41">
-        <v>0.01524274764393529</v>
+        <v>0</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8532,2921 +8046,7 @@
         <v>0</v>
       </c>
       <c r="BS41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.0008501026636590816</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K42">
-        <v>0.000860422318019437</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.001000320580691694</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC42">
-        <v>0.01086579700526473</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>3</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.001219869844047052</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU42">
-        <v>0.01366950793797788</v>
-      </c>
-      <c r="AV42">
-        <v>1</v>
-      </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
-        <v>1</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>3</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.001571148665415623</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>0</v>
-      </c>
-      <c r="BL42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM42">
-        <v>0.01524274764393529</v>
-      </c>
-      <c r="BN42">
-        <v>1</v>
-      </c>
-      <c r="BO42">
-        <v>1</v>
-      </c>
-      <c r="BP42">
-        <v>1</v>
-      </c>
-      <c r="BQ42">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.0008501026636590816</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K43">
-        <v>0.0008578465054149557</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.001000320580691694</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC43">
-        <v>0.01086579700526473</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>3</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.001219869844047052</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU43">
-        <v>0.01366950793797788</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>3</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.001571148665415623</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>0</v>
-      </c>
-      <c r="BL43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM43">
-        <v>0.01524274764393529</v>
-      </c>
-      <c r="BN43">
-        <v>1</v>
-      </c>
-      <c r="BO43">
-        <v>1</v>
-      </c>
-      <c r="BP43">
-        <v>1</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0008501026636590816</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44">
-        <v>0.0008578465054149557</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>3</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.001000320580691694</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC44">
-        <v>0.01086579700526473</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.001219869844047052</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU44">
-        <v>0.01358074489941958</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>4</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.001571148665415623</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>0</v>
-      </c>
-      <c r="BL44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM44">
-        <v>0.01514376876313052</v>
-      </c>
-      <c r="BN44">
-        <v>1</v>
-      </c>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BP44">
-        <v>1</v>
-      </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0008501026636590816</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K45">
-        <v>0.0008578465054149557</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.001000320580691694</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC45">
-        <v>0.01079523988185392</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>4</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.001219869844047052</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU45">
-        <v>0.01358074489941958</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AW45">
-        <v>1</v>
-      </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>4</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.001571148665415623</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>0</v>
-      </c>
-      <c r="BL45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM45">
-        <v>0.01514376876313052</v>
-      </c>
-      <c r="BN45">
-        <v>1</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BP45">
-        <v>1</v>
-      </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.0008475268510546002</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K46">
-        <v>0.0008552706928104742</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.0009880854708204077</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC46">
-        <v>0.01079523988185392</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>4</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.001193517299708896</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>1</v>
-      </c>
-      <c r="AT46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU46">
-        <v>0.01349198186086128</v>
-      </c>
-      <c r="AV46">
-        <v>1</v>
-      </c>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>5</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.001522208225930477</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>1</v>
-      </c>
-      <c r="BL46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM46">
-        <v>0.01504478988232574</v>
-      </c>
-      <c r="BN46">
-        <v>1</v>
-      </c>
-      <c r="BO46">
-        <v>1</v>
-      </c>
-      <c r="BP46">
-        <v>1</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.0008475268510546002</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K47">
-        <v>0.0008552706928104742</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>4</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.0009880854708204077</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC47">
-        <v>0.01072468275844311</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>5</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0.001193517299708896</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>1</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU47">
-        <v>0.01304816666806979</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AW47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>10</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0.001522208225930477</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>1</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM47">
-        <v>0.01454989547830187</v>
-      </c>
-      <c r="BN47">
-        <v>1</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.0008475268510546002</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K48">
-        <v>0.0008526948802059929</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>5</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T48">
-        <v>0.0009880854708204077</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC48">
-        <v>0.01037189714138906</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>10</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL48">
-        <v>0.001193517299708896</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>1</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU48">
-        <v>0.01242682539816171</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AW48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>17</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD48">
-        <v>0.001522208225930477</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>1</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>1</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM48">
-        <v>0.01385704331266845</v>
-      </c>
-      <c r="BN48">
-        <v>1</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:71">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.0008475268510546002</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K49">
-        <v>0.0008398158171835858</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>10</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T49">
-        <v>0.0009880854708204077</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC49">
-        <v>0.009877997277513392</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>17</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL49">
-        <v>0.001193517299708896</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>1</v>
-      </c>
-      <c r="AT49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU49">
-        <v>0.01162795805113703</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>26</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD49">
-        <v>0.001522208225930477</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>1</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>1</v>
-      </c>
-      <c r="BL49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM49">
-        <v>0.01296623338542548</v>
-      </c>
-      <c r="BN49">
-        <v>1</v>
-      </c>
-      <c r="BO49">
-        <v>1</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:71">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.0008449510384501188</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K50">
-        <v>0.0008217851289522161</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>17</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50">
-        <v>0.000975850360949121</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>2</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC50">
-        <v>0.009242983166816101</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>26</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL50">
-        <v>0.00116716475537074</v>
-      </c>
-      <c r="AM50">
-        <v>1</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>2</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU50">
-        <v>0.01118414285834554</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>1</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>31</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD50">
-        <v>0.00147326778644533</v>
-      </c>
-      <c r="BE50">
-        <v>1</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>1</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <v>2</v>
-      </c>
-      <c r="BL50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM50">
-        <v>0.0124713389814016</v>
-      </c>
-      <c r="BN50">
-        <v>1</v>
-      </c>
-      <c r="BO50">
-        <v>1</v>
-      </c>
-      <c r="BP50">
-        <v>1</v>
-      </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:71">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.0008449510384501188</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K51">
-        <v>0.0007986028155118834</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>26</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51">
-        <v>0.000975850360949121</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>2</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC51">
-        <v>0.008890197549762053</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>31</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL51">
-        <v>0.00116716475537074</v>
-      </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>2</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU51">
-        <v>0.009060418529622877</v>
-      </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
-      <c r="AW51">
-        <v>2</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>79</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD51">
-        <v>0.00147326778644533</v>
-      </c>
-      <c r="BE51">
-        <v>1</v>
-      </c>
-      <c r="BF51">
-        <v>1</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>1</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>2</v>
-      </c>
-      <c r="BL51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM51">
-        <v>0.00938834072049115</v>
-      </c>
-      <c r="BN51">
-        <v>2</v>
-      </c>
-      <c r="BO51">
-        <v>2</v>
-      </c>
-      <c r="BP51">
-        <v>1</v>
-      </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
-      <c r="BR51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS51">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:71">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.0008449510384501188</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K52">
-        <v>0.0007857237524894764</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>31</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T52">
-        <v>0.000975850360949121</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>2</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC52">
-        <v>0.00847601996141035</v>
-      </c>
-      <c r="AD52">
-        <v>2</v>
-      </c>
-      <c r="AE52">
-        <v>2</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>79</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52">
-        <v>0.00116716475537074</v>
-      </c>
-      <c r="AM52">
-        <v>1</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>2</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU52">
-        <v>0.006302175737639152</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>86</v>
-      </c>
-      <c r="BC52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD52">
-        <v>0.00147326778644533</v>
-      </c>
-      <c r="BE52">
-        <v>1</v>
-      </c>
-      <c r="BF52">
-        <v>1</v>
-      </c>
-      <c r="BG52">
-        <v>0</v>
-      </c>
-      <c r="BH52">
-        <v>1</v>
-      </c>
-      <c r="BI52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ52">
-        <v>2</v>
-      </c>
-      <c r="BL52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM52">
-        <v>0.007027500537138998</v>
-      </c>
-      <c r="BN52">
-        <v>1</v>
-      </c>
-      <c r="BO52">
-        <v>1</v>
-      </c>
-      <c r="BP52">
-        <v>1</v>
-      </c>
-      <c r="BQ52">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS52">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:71">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.0008423752258456374</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K53">
-        <v>0.0006440540592429994</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>86</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T53">
-        <v>0.0009636152510778344</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>3</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC53">
-        <v>0.005009555762167506</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>86</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL53">
-        <v>0.001140812211032584</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>3</v>
-      </c>
-      <c r="AT53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU53">
-        <v>0.0059110693182596</v>
-      </c>
-      <c r="AV53">
-        <v>9</v>
-      </c>
-      <c r="AW53">
-        <v>9</v>
-      </c>
-      <c r="AX53">
-        <v>1</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>283</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD53">
-        <v>0.001424327346960183</v>
-      </c>
-      <c r="BE53">
-        <v>1</v>
-      </c>
-      <c r="BF53">
-        <v>1</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>1</v>
-      </c>
-      <c r="BI53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>3</v>
-      </c>
-      <c r="BL53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM53">
-        <v>0.0008725651603482353</v>
-      </c>
-      <c r="BN53">
-        <v>9</v>
-      </c>
-      <c r="BO53">
-        <v>9</v>
-      </c>
-      <c r="BP53">
-        <v>1</v>
-      </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS53">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:71">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.000839799413241156</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K54">
-        <v>0.0004611713643248198</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>157</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T54">
-        <v>0.0009513801412065478</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>1</v>
-      </c>
-      <c r="Y54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>4</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>157</v>
-      </c>
-      <c r="AK54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL54">
-        <v>0.001114459666694428</v>
-      </c>
-      <c r="AM54">
-        <v>1</v>
-      </c>
-      <c r="AN54">
-        <v>1</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>4</v>
-      </c>
-      <c r="AT54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>1</v>
-      </c>
-      <c r="AW54">
-        <v>1</v>
-      </c>
-      <c r="AX54">
-        <v>1</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>157</v>
-      </c>
-      <c r="BC54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD54">
-        <v>0.001375386907475037</v>
-      </c>
-      <c r="BE54">
-        <v>1</v>
-      </c>
-      <c r="BF54">
-        <v>1</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-      <c r="BH54">
-        <v>1</v>
-      </c>
-      <c r="BI54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ54">
-        <v>4</v>
-      </c>
-      <c r="BL54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM54">
-        <v>0</v>
-      </c>
-      <c r="BN54">
-        <v>1</v>
-      </c>
-      <c r="BO54">
-        <v>1</v>
-      </c>
-      <c r="BP54">
-        <v>1</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS54">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:71">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.000839799413241156</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T55">
-        <v>0.0009513801412065478</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>1</v>
-      </c>
-      <c r="Y55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>4</v>
-      </c>
-      <c r="AK55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL55">
-        <v>0.001114459666694428</v>
-      </c>
-      <c r="AM55">
-        <v>1</v>
-      </c>
-      <c r="AN55">
-        <v>1</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>1</v>
-      </c>
-      <c r="AQ55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>4</v>
-      </c>
-      <c r="BC55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD55">
-        <v>0.001375386907475037</v>
-      </c>
-      <c r="BE55">
-        <v>1</v>
-      </c>
-      <c r="BF55">
-        <v>1</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-      <c r="BH55">
-        <v>1</v>
-      </c>
-      <c r="BI55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:71">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.0008372236006366746</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T56">
-        <v>0.0009391450313352612</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="V56">
-        <v>1</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>1</v>
-      </c>
-      <c r="Y56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>5</v>
-      </c>
-      <c r="AK56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL56">
-        <v>0.001088107122356272</v>
-      </c>
-      <c r="AM56">
-        <v>1</v>
-      </c>
-      <c r="AN56">
-        <v>1</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>1</v>
-      </c>
-      <c r="AQ56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR56">
-        <v>5</v>
-      </c>
-      <c r="BC56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD56">
-        <v>0.00132644646798989</v>
-      </c>
-      <c r="BE56">
-        <v>1</v>
-      </c>
-      <c r="BF56">
-        <v>1</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>1</v>
-      </c>
-      <c r="BI56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:71">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.0008320719754277118</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T57">
-        <v>0.0009146748115926878</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-      <c r="V57">
-        <v>1</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>1</v>
-      </c>
-      <c r="Y57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>7</v>
-      </c>
-      <c r="AK57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL57">
-        <v>0.001035402033679961</v>
-      </c>
-      <c r="AM57">
-        <v>1</v>
-      </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>1</v>
-      </c>
-      <c r="AQ57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <v>7</v>
-      </c>
-      <c r="BC57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD57">
-        <v>0.001228565589019597</v>
-      </c>
-      <c r="BE57">
-        <v>1</v>
-      </c>
-      <c r="BF57">
-        <v>1</v>
-      </c>
-      <c r="BG57">
-        <v>0</v>
-      </c>
-      <c r="BH57">
-        <v>1</v>
-      </c>
-      <c r="BI57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:71">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.0008320719754277118</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>7</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T58">
-        <v>0.0009146748115926878</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
-      </c>
-      <c r="V58">
-        <v>1</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>1</v>
-      </c>
-      <c r="Y58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>7</v>
-      </c>
-      <c r="AK58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL58">
-        <v>0.001035402033679961</v>
-      </c>
-      <c r="AM58">
-        <v>1</v>
-      </c>
-      <c r="AN58">
-        <v>1</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
-      </c>
-      <c r="AP58">
-        <v>1</v>
-      </c>
-      <c r="AQ58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <v>7</v>
-      </c>
-      <c r="BC58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD58">
-        <v>0.001228565589019597</v>
-      </c>
-      <c r="BE58">
-        <v>1</v>
-      </c>
-      <c r="BF58">
-        <v>1</v>
-      </c>
-      <c r="BG58">
-        <v>0</v>
-      </c>
-      <c r="BH58">
-        <v>1</v>
-      </c>
-      <c r="BI58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ58">
-        <v>7</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
